--- a/Questions_groups.xlsx
+++ b/Questions_groups.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariannarosso/Desktop/Analyses/SR_Survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5272121D-01BB-F24E-AEB6-437DFF96FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C809F54-AA49-AA4B-B7D4-89A422AAAFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{0EEA05BC-5320-174E-B69F-189A9AA457D2}"/>
+    <workbookView xWindow="16420" yWindow="760" windowWidth="12980" windowHeight="16720" xr2:uid="{0EEA05BC-5320-174E-B69F-189A9AA457D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions_groups" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>How familiar are you with the term systematic review? </t>
   </si>
@@ -174,6 +174,24 @@
   </si>
   <si>
     <t xml:space="preserve">Which field are you working in? </t>
+  </si>
+  <si>
+    <t>open text</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>type/notes</t>
+  </si>
+  <si>
+    <t>All NA-need to double check!</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>makes sense to do at the end</t>
   </si>
 </sst>
 </file>
@@ -195,12 +213,36 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,9 +257,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,458 +602,579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10AD0B5-4EFB-E847-B206-D95732BAEF77}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="95" customWidth="1"/>
+    <col min="1" max="1" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Questions_groups.xlsx
+++ b/Questions_groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariannarosso/Desktop/Analyses/SR_Survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C809F54-AA49-AA4B-B7D4-89A422AAAFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75A62EB-FBEF-D840-9AA1-3439A552FA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="760" windowWidth="12980" windowHeight="16720" xr2:uid="{0EEA05BC-5320-174E-B69F-189A9AA457D2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16720" xr2:uid="{0EEA05BC-5320-174E-B69F-189A9AA457D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions_groups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="55">
   <si>
     <t>How familiar are you with the term systematic review? </t>
   </si>
@@ -188,10 +188,19 @@
     <t>All NA-need to double check!</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>makes sense to do at the end</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>makes sense to do at the end (as it will probably involve cleaning)</t>
   </si>
 </sst>
 </file>
@@ -602,576 +611,794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10AD0B5-4EFB-E847-B206-D95732BAEF77}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.5" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" customWidth="1"/>
+    <col min="3" max="3" width="121" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>29</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>31</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>32</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>33</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>35</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" s="1"/>
+      <c r="E70" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
